--- a/biology/Botanique/Ceanothus_thyrsiflorus/Ceanothus_thyrsiflorus.xlsx
+++ b/biology/Botanique/Ceanothus_thyrsiflorus/Ceanothus_thyrsiflorus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ceanothus thyrsiflorus est une espèce de plantes à fleurs de la famille des Rhamnaceae. C'est un arbuste de 60 cm de haut. Dressé, vigoureux, aux branches arquées, ses feuilles, de 3 à 4 cm de long, sont persistantes, alternes, ovales, dentelées, vert moyen lustré.
 Sa floraison, en panicules terminales et latérales de 3 à 8 cm de long, se déroule en mai-juin. Elle peut être bleu pâle à bleu foncé.
@@ -513,7 +525,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>thyrsiflorus : à fleurs en thyrse.</t>
         </is>
@@ -543,7 +557,9 @@
           <t>Variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>var. griseus : feuilles larges et obtuses à l'apex, velues et soyeuses au revers, marge ondulée. Fleurs bleu lilas en mai, rusticité moyenne. A palisser sur un mur ensoleillé.
 var. repens : variété tapissante, vigoureuse, fleurs bleues en mai. Bonne rusticité sur talus et en couvre sol.
@@ -575,7 +591,9 @@
           <t>Cultivars</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>'Cascade' : Feuilles plus oblongues, floraison en avril à juin, en panicules bleu violacé de 3 à 6 cm de long.
 'Millerton Point' : branches étalées. Fleurs blanc crème à parfum de miel, en panicules de 7 à 10 cm de long.
